--- a/Amostra.xlsx
+++ b/Amostra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thelu\Documents\GitHub\pbl_pds_problema02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE20D798-4EB0-4639-923E-A49C5AA5815D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529F0A5B-6023-408F-8AE3-9AA7C55E5E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{69EFECE4-976C-416C-A8D4-77E857A7EE13}"/>
   </bookViews>
@@ -60,10 +60,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00000000000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00000%"/>
+    <numFmt numFmtId="177" formatCode="0.000000%"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,15 +97,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -110,6 +121,1787 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Erro</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Planilha1!$G$2:$G$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.158</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.313</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.46899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.50700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.54700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.58599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.77900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.81799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.85799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.89700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.93500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.97399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.052</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.091</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1679999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.208</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.2470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.286</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.3260000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.3640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.444</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.4830000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.522</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.5620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.601</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.679</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.718</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.7569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.7689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.835</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.913</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.9510000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.99</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.0259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.0649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.1030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.1440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.1520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.2229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.2610000000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.379</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.419</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.4590000000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.4990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.5390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.5779999999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.6179999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.657</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.6970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.7349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.7730000000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.8130000000000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.8519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.89</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.9279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.9670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.0049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.0449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.0840000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.125</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.1629999999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.202</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.2410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.28</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.32</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.3580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.3980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.4380000000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.4769999999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.5179999999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.5590000000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.5990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.6389999999999998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.6789999999999998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.718</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.758</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.7970000000000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.8359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.875</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.9119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.952</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3.992</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.0309999999999997</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.07</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4.109</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4.1900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4.2309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4.2709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4.3099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4.3499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4.3879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4.4269999999999996</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4.468</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4.5060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4.5460000000000003</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4.5869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4.6269999999999998</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4.6660000000000004</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>4.7050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.7439999999999998</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>4.7830000000000004</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>4.8540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>4.8620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4.9039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>4.9409999999999998</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>4.9809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>5.0199999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$H$2:$H$129</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000%</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>1.5318627449999873E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0637254899999745E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5955882349998919E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.127450979999949E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6593137250000061E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1911764699997838E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0723039214999841E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2254901959999898E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3786764704999953E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5318627450000012E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6850490195000066E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8382352939999568E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9914215684999625E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1446078429999682E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2977941174999739E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.4509803919999796E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6041666664999853E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7573529409999907E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.9105392154999964E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.0637254900000025E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.2169117645000075E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.2977941176249961E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.3131127450749965E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.6764705879999135E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.3437499999749977E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.3590686274249873E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.3743872548749988E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.3897058823249884E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.405024509775E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.3811274509500067E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.4356617646750011E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.9019607839999592E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.0551470584998538E-5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.4816176470249918E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.4969362744750037E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.5122549019249927E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.5275735293750045E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.503676470549989E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.5582107842750059E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.573529411724995E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.5888480391749846E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.5649509803499908E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.619485294074986E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.5955882352499922E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.610906862700004E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.6262254901499931E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.6807598038749883E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.6960784313249996E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.7113970587749892E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.6874999999499953E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.74203431367499E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.7181372548499745E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.7334558823000086E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.7095588234749931E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.7640931371999872E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.8186274509249819E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.7555147058250052E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.7708333332749948E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.7861519607249844E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.801470588174974E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.7775735293500019E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.8321078430749966E-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.8866421567999923E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.9411764705249865E-4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.9564950979749761E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.9325980391500045E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.9871323528749992E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.9240196077749786E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.9393382352250126E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.9938725489500073E-4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.0484068626750015E-4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.0245098038499854E-4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.0006127450249699E-4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.015931372475004E-4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.0312499999249935E-4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.0465686273749831E-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.022671568550011E-4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.0772058822750057E-4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.1317401960000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.1078431371749849E-4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.0839460783499694E-4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.1384803920750085E-4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.114583333249993E-4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.1299019606999815E-4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7.1844362744249773E-4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.1997549018750103E-4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.1758578430499948E-4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9.1911764704999844E-4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.1167279411674969E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.1182598039125003E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.1197916666574991E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.3174019607749977E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.1228553921474971E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.2830882351999653E-4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.3376225489250044E-4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.1274509803824984E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.1289828431274972E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.1305147058725006E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.3596813724500022E-4</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.3749999998999907E-4</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9.3903186273499803E-4</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.1366421568525008E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.1381740195974999E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.1397058823424987E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.1412377450874978E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.1427696078324967E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>9.4822303920500057E-4</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>7.536764705774957E-4</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>7.5520833332249455E-4</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>7.567401960675024E-4</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>7.5827205881250136E-4</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>7.5980392155750032E-4</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>7.6133578430249928E-4</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>7.6286764704749824E-4</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>7.643995097924972E-4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>7.6593137253749615E-4</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>7.6746323528249501E-4</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>7.6899509802750286E-4</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>9.6660539214499686E-4</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>7.7205882351750077E-4</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>7.7359068626249973E-4</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>7.7512254900749869E-4</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>7.7665441175249765E-4</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>7.781862744974965E-4</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>7.7971813724249546E-4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>5.8517156861499938E-4</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3.9062499998749445E-4</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-1.2505552149377763E-14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EBA3-4CE7-99EE-ADFD0F7AFFF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="386806304"/>
+        <c:axId val="386810048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="386806304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tensão</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="386810048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="386810048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.5000000000000005E-3"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Erro</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00000%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="386806304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>662609</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>538369</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C1047D-19B3-B52F-8519-E0653422D0CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -409,22 +2201,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94484885-FA50-45B0-AB05-E19EBD1638AD}">
-  <dimension ref="B1:H129"/>
+  <dimension ref="B1:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="G126" sqref="G126"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>2</v>
       </c>
@@ -444,7 +2237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -467,11 +2260,15 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="H2" s="1">
-        <f>(C2-E2)/100</f>
-        <v>-1.5318627449999873E-6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+        <f>(E2-C2)/100</f>
+        <v>1.5318627449999873E-6</v>
+      </c>
+      <c r="I2" s="2">
+        <f>( (E2^2) - (C2^2))/100</f>
+        <v>1.1991143730007539E-7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
@@ -494,16 +2291,20 @@
         <v>0.08</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H66" si="2">(C3-E3)/100</f>
-        <v>-3.0637254899999745E-6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H3:H66" si="2">(E3-C3)/100</f>
+        <v>3.0637254899999745E-6</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I66" si="3">( (E3^2) - (C3^2))/100</f>
+        <v>4.7964574920030156E-7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C67" si="3">C3+(5/128)</f>
+        <f t="shared" ref="C4:C67" si="4">C3+(5/128)</f>
         <v>0.1171875</v>
       </c>
       <c r="D4">
@@ -522,15 +2323,19 @@
       </c>
       <c r="H4" s="1">
         <f t="shared" si="2"/>
-        <v>-4.5955882349998919E-6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4.5955882349998919E-6</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0792029357006675E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15625</v>
       </c>
       <c r="D5">
@@ -549,15 +2354,19 @@
       </c>
       <c r="H5" s="1">
         <f t="shared" si="2"/>
-        <v>-6.127450979999949E-6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6.127450979999949E-6</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="3"/>
+        <v>1.9185829968012062E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1953125</v>
       </c>
       <c r="D6">
@@ -576,15 +2385,19 @@
       </c>
       <c r="H6" s="1">
         <f t="shared" si="2"/>
-        <v>-7.6593137250000061E-6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+        <v>7.6593137250000061E-6</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="3"/>
+        <v>2.9977859325019256E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.234375</v>
       </c>
       <c r="D7">
@@ -603,15 +2416,19 @@
       </c>
       <c r="H7" s="1">
         <f t="shared" si="2"/>
-        <v>-9.1911764699997838E-6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+        <v>9.1911764699997838E-6</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="3"/>
+        <v>4.31681174280267E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2734375</v>
       </c>
       <c r="D8">
@@ -630,15 +2447,19 @@
       </c>
       <c r="H8" s="1">
         <f t="shared" si="2"/>
-        <v>-1.0723039214999841E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1.0723039214999841E-5</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="3"/>
+        <v>5.8756604277036828E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.3125</v>
       </c>
       <c r="D9">
@@ -657,15 +2478,19 @@
       </c>
       <c r="H9" s="1">
         <f t="shared" si="2"/>
-        <v>-1.2254901959999898E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1.2254901959999898E-5</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="3"/>
+        <v>7.6743319872048249E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.3515625</v>
       </c>
       <c r="D10">
@@ -684,15 +2509,19 @@
       </c>
       <c r="H10" s="1">
         <f t="shared" si="2"/>
-        <v>-1.3786764704999953E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1.3786764704999953E-5</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="3"/>
+        <v>9.7128264213061639E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.390625</v>
       </c>
       <c r="D11">
@@ -711,15 +2540,19 @@
       </c>
       <c r="H11" s="1">
         <f t="shared" si="2"/>
-        <v>-1.5318627450000012E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1.5318627450000012E-5</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1991143730007702E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.4296875</v>
       </c>
       <c r="D12">
@@ -738,15 +2571,19 @@
       </c>
       <c r="H12" s="1">
         <f t="shared" si="2"/>
-        <v>-1.6850490195000066E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1.6850490195000066E-5</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4509283913309301E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.46875</v>
       </c>
       <c r="D13">
@@ -765,15 +2602,19 @@
       </c>
       <c r="H13" s="1">
         <f t="shared" si="2"/>
-        <v>-1.8382352939999568E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1.8382352939999568E-5</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="3"/>
+        <v>1.726724697121068E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.5078125</v>
       </c>
       <c r="D14">
@@ -792,15 +2633,19 @@
       </c>
       <c r="H14" s="1">
         <f t="shared" si="2"/>
-        <v>-1.9914215684999625E-5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1.9914215684999625E-5</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="3"/>
+        <v>2.0265032903712398E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>14</v>
       </c>
       <c r="C15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.546875</v>
       </c>
       <c r="D15">
@@ -819,15 +2664,19 @@
       </c>
       <c r="H15" s="1">
         <f t="shared" si="2"/>
-        <v>-2.1446078429999682E-5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2.1446078429999682E-5</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="3"/>
+        <v>2.3502641710814731E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>15</v>
       </c>
       <c r="C16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.5859375</v>
       </c>
       <c r="D16">
@@ -846,15 +2695,19 @@
       </c>
       <c r="H16" s="1">
         <f t="shared" si="2"/>
-        <v>-2.2977941174999739E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2.2977941174999739E-5</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="3"/>
+        <v>2.6980073392516845E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>16</v>
       </c>
       <c r="C17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.625</v>
       </c>
       <c r="D17">
@@ -873,15 +2726,19 @@
       </c>
       <c r="H17" s="1">
         <f t="shared" si="2"/>
-        <v>-2.4509803919999796E-5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2.4509803919999796E-5</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="3"/>
+        <v>3.06973279488193E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>17</v>
       </c>
       <c r="C18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.6640625</v>
       </c>
       <c r="D18">
@@ -900,15 +2757,19 @@
       </c>
       <c r="H18" s="1">
         <f t="shared" si="2"/>
-        <v>-2.6041666664999853E-5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2.6041666664999853E-5</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="3"/>
+        <v>3.4654405379722084E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>18</v>
       </c>
       <c r="C19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.703125</v>
       </c>
       <c r="D19">
@@ -927,15 +2788,19 @@
       </c>
       <c r="H19" s="1">
         <f t="shared" si="2"/>
-        <v>-2.7573529409999907E-5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2.7573529409999907E-5</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="3"/>
+        <v>3.8851305685224656E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>19</v>
       </c>
       <c r="C20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.7421875</v>
       </c>
       <c r="D20">
@@ -954,15 +2819,19 @@
       </c>
       <c r="H20" s="1">
         <f t="shared" si="2"/>
-        <v>-2.9105392154999964E-5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2.9105392154999964E-5</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="3"/>
+        <v>4.328802886532812E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>20</v>
       </c>
       <c r="C21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.78125</v>
       </c>
       <c r="D21">
@@ -981,15 +2850,19 @@
       </c>
       <c r="H21" s="1">
         <f t="shared" si="2"/>
-        <v>-3.0637254900000025E-5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3.0637254900000025E-5</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="3"/>
+        <v>4.7964574920030809E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>21</v>
       </c>
       <c r="C22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8203125</v>
       </c>
       <c r="D22">
@@ -1008,15 +2881,19 @@
       </c>
       <c r="H22" s="1">
         <f t="shared" si="2"/>
-        <v>-3.2169117645000075E-5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3.2169117645000075E-5</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="3"/>
+        <v>5.2880943849333836E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>22</v>
       </c>
       <c r="C23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.859375</v>
       </c>
       <c r="D23">
@@ -1035,15 +2912,19 @@
       </c>
       <c r="H23" s="1">
         <f t="shared" si="2"/>
-        <v>-2.2977941176249961E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2.2977941176249961E-4</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="3"/>
+        <v>4.0021322177378858E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>23</v>
       </c>
       <c r="C24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8984375</v>
       </c>
       <c r="D24">
@@ -1062,15 +2943,19 @@
       </c>
       <c r="H24" s="1">
         <f t="shared" si="2"/>
-        <v>-2.3131127450749965E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2.3131127450749965E-4</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="3"/>
+        <v>4.2098793695209192E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>24</v>
       </c>
       <c r="C25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9375</v>
       </c>
       <c r="D25">
@@ -1089,15 +2974,19 @@
       </c>
       <c r="H25" s="1">
         <f t="shared" si="2"/>
-        <v>-3.6764705879999135E-5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3.6764705879999135E-5</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="3"/>
+        <v>6.9068987884842719E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>25</v>
       </c>
       <c r="C26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9765625</v>
       </c>
       <c r="D26">
@@ -1116,15 +3005,19 @@
       </c>
       <c r="H26" s="1">
         <f t="shared" si="2"/>
-        <v>-2.3437499999749977E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2.3437499999749977E-4</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="3"/>
+        <v>4.6325683593249954E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>26</v>
       </c>
       <c r="C27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.015625</v>
       </c>
       <c r="D27">
@@ -1143,15 +3036,19 @@
       </c>
       <c r="H27" s="1">
         <f t="shared" si="2"/>
-        <v>-2.3590686274249873E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2.3590686274249873E-4</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="3"/>
+        <v>4.8475101973460166E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>27</v>
       </c>
       <c r="C28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0546875</v>
       </c>
       <c r="D28">
@@ -1170,15 +3067,19 @@
       </c>
       <c r="H28" s="1">
         <f t="shared" si="2"/>
-        <v>-2.3743872548749988E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2.3743872548749988E-4</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="3"/>
+        <v>5.0648502641130748E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>28</v>
       </c>
       <c r="C29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.09375</v>
       </c>
       <c r="D29">
@@ -1197,15 +3098,19 @@
       </c>
       <c r="H29" s="1">
         <f t="shared" si="2"/>
-        <v>-2.3897058823249884E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2.3897058823249884E-4</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="3"/>
+        <v>5.2845885596261024E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>29</v>
       </c>
       <c r="C30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1328125</v>
       </c>
       <c r="D30">
@@ -1224,15 +3129,19 @@
       </c>
       <c r="H30" s="1">
         <f t="shared" si="2"/>
-        <v>-2.405024509775E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2.405024509775E-4</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="3"/>
+        <v>5.5067250838851671E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>30</v>
       </c>
       <c r="C31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.171875</v>
       </c>
       <c r="D31">
@@ -1251,15 +3160,19 @@
       </c>
       <c r="H31" s="1">
         <f t="shared" si="2"/>
-        <v>-4.3811274509500067E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4.3811274509500067E-4</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0460210240578749E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>31</v>
       </c>
       <c r="C32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2109375</v>
       </c>
       <c r="D32">
@@ -1278,15 +3191,19 @@
       </c>
       <c r="H32" s="1">
         <f t="shared" si="2"/>
-        <v>-2.4356617646750011E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2.4356617646750011E-4</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="3"/>
+        <v>5.9581928186412724E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>32</v>
       </c>
       <c r="C33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.25</v>
       </c>
       <c r="D33">
@@ -1305,15 +3222,19 @@
       </c>
       <c r="H33" s="1">
         <f t="shared" si="2"/>
-        <v>-4.9019607839999592E-5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4.9019607839999592E-5</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="3"/>
+        <v>1.227893117952772E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>33</v>
       </c>
       <c r="C34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2890625</v>
       </c>
       <c r="D34">
@@ -1332,15 +3253,19 @@
       </c>
       <c r="H34" s="1">
         <f t="shared" si="2"/>
-        <v>-5.0551470584998538E-5</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5.0551470584998538E-5</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="3"/>
+        <v>1.3058355521978094E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>34</v>
       </c>
       <c r="C35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.328125</v>
       </c>
       <c r="D35">
@@ -1359,15 +3284,19 @@
       </c>
       <c r="H35" s="1">
         <f t="shared" si="2"/>
-        <v>-2.4816176470249918E-4</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2.4816176470249918E-4</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="3"/>
+        <v>6.6533811363703958E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>35</v>
       </c>
       <c r="C36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3671875</v>
       </c>
       <c r="D36">
@@ -1386,15 +3315,19 @@
       </c>
       <c r="H36" s="1">
         <f t="shared" si="2"/>
-        <v>-2.4969362744750037E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2.4969362744750037E-4</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="3"/>
+        <v>6.8899070331054804E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>36</v>
       </c>
       <c r="C37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.40625</v>
       </c>
       <c r="D37">
@@ -1413,15 +3346,19 @@
       </c>
       <c r="H37" s="1">
         <f t="shared" si="2"/>
-        <v>-2.5122549019249927E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2.5122549019249927E-4</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="3"/>
+        <v>7.1288311585865132E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>37</v>
       </c>
       <c r="C38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4453125</v>
       </c>
       <c r="D38">
@@ -1440,15 +3377,19 @@
       </c>
       <c r="H38" s="1">
         <f t="shared" si="2"/>
-        <v>-2.5275735293750045E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2.5275735293750045E-4</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="3"/>
+        <v>7.3701535128135821E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>38</v>
       </c>
       <c r="C39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.484375</v>
       </c>
       <c r="D39">
@@ -1467,15 +3408,19 @@
       </c>
       <c r="H39" s="1">
         <f t="shared" si="2"/>
-        <v>-4.503676470549989E-4</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4.503676470549989E-4</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="3"/>
+        <v>1.3573120539459138E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>39</v>
       </c>
       <c r="C40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5234375</v>
       </c>
       <c r="D40">
@@ -1494,15 +3439,19 @@
       </c>
       <c r="H40" s="1">
         <f t="shared" si="2"/>
-        <v>-2.5582107842750059E-4</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2.5582107842750059E-4</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="3"/>
+        <v>7.8599929075056979E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>40</v>
       </c>
       <c r="C41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5625</v>
       </c>
       <c r="D41">
@@ -1521,15 +3470,19 @@
       </c>
       <c r="H41" s="1">
         <f t="shared" si="2"/>
-        <v>-2.573529411724995E-4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2.573529411724995E-4</v>
+      </c>
+      <c r="I41" s="2">
+        <f t="shared" si="3"/>
+        <v>8.1085099479707436E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>41</v>
       </c>
       <c r="C42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6015625</v>
       </c>
       <c r="D42">
@@ -1548,15 +3501,19 @@
       </c>
       <c r="H42" s="1">
         <f t="shared" si="2"/>
-        <v>-2.5888480391749846E-4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2.5888480391749846E-4</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="3"/>
+        <v>8.3594252171817821E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>42</v>
       </c>
       <c r="C43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.640625</v>
       </c>
       <c r="D43">
@@ -1575,15 +3532,19 @@
       </c>
       <c r="H43" s="1">
         <f t="shared" si="2"/>
-        <v>-4.5649509803499908E-4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4.5649509803499908E-4</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" si="3"/>
+        <v>1.518713317880338E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>43</v>
       </c>
       <c r="C44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6796875</v>
       </c>
       <c r="D44">
@@ -1602,15 +3563,19 @@
       </c>
       <c r="H44" s="1">
         <f t="shared" si="2"/>
-        <v>-2.619485294074986E-4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2.619485294074986E-4</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" si="3"/>
+        <v>8.8684504418419237E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>44</v>
       </c>
       <c r="C45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.71875</v>
       </c>
       <c r="D45">
@@ -1629,15 +3594,19 @@
       </c>
       <c r="H45" s="1">
         <f t="shared" si="2"/>
-        <v>-4.5955882352499922E-4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4.5955882352499922E-4</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6008528870951543E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>45</v>
       </c>
       <c r="C46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7578125</v>
       </c>
       <c r="D46">
@@ -1656,15 +3625,19 @@
       </c>
       <c r="H46" s="1">
         <f t="shared" si="2"/>
-        <v>-4.610906862700004E-4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4.610906862700004E-4</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6422824060144637E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>46</v>
       </c>
       <c r="C47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.796875</v>
       </c>
       <c r="D47">
@@ -1683,15 +3656,19 @@
       </c>
       <c r="H47" s="1">
         <f t="shared" si="2"/>
-        <v>-4.6262254901499931E-4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4.6262254901499931E-4</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6839517478083677E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>47</v>
       </c>
       <c r="C48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8359375</v>
       </c>
       <c r="D48">
@@ -1710,15 +3687,19 @@
       </c>
       <c r="H48" s="1">
         <f t="shared" si="2"/>
-        <v>-2.6807598038749883E-4</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2.6807598038749883E-4</v>
+      </c>
+      <c r="I48" s="2">
+        <f t="shared" si="3"/>
+        <v>9.9152796361142055E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>48</v>
       </c>
       <c r="C49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.875</v>
       </c>
       <c r="D49">
@@ -1737,15 +3718,19 @@
       </c>
       <c r="H49" s="1">
         <f t="shared" si="2"/>
-        <v>-2.6960784313249996E-4</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2.6960784313249996E-4</v>
+      </c>
+      <c r="I49" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0182982506547322E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>49</v>
       </c>
       <c r="C50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9140625</v>
       </c>
       <c r="D50">
@@ -1764,15 +3749,19 @@
       </c>
       <c r="H50" s="1">
         <f t="shared" si="2"/>
-        <v>-2.7113970587749892E-4</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2.7113970587749892E-4</v>
+      </c>
+      <c r="I50" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0453083605726343E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>50</v>
       </c>
       <c r="C51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.953125</v>
       </c>
       <c r="D51">
@@ -1791,15 +3780,19 @@
       </c>
       <c r="H51" s="1">
         <f t="shared" si="2"/>
-        <v>-4.6874999999499953E-4</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4.6874999999499953E-4</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" si="3"/>
+        <v>1.8530273437299982E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>51</v>
       </c>
       <c r="C52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9921875</v>
       </c>
       <c r="D52">
@@ -1818,15 +3811,19 @@
       </c>
       <c r="H52" s="1">
         <f t="shared" si="2"/>
-        <v>-2.74203431367499E-4</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2.74203431367499E-4</v>
+      </c>
+      <c r="I52" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1000480490322496E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>52</v>
       </c>
       <c r="C53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.03125</v>
       </c>
       <c r="D53">
@@ -1845,15 +3842,19 @@
       </c>
       <c r="H53" s="1">
         <f t="shared" si="2"/>
-        <v>-4.7181372548499745E-4</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4.7181372548499745E-4</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.9390040789384066E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>53</v>
       </c>
       <c r="C54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0703125</v>
       </c>
       <c r="D54">
@@ -1872,15 +3873,19 @@
       </c>
       <c r="H54" s="1">
         <f t="shared" si="2"/>
-        <v>-4.7334558823000086E-4</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4.7334558823000086E-4</v>
+      </c>
+      <c r="I54" s="2">
+        <f t="shared" si="3"/>
+        <v>1.982352180854532E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>54</v>
       </c>
       <c r="C55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.109375</v>
       </c>
       <c r="D55">
@@ -1899,15 +3904,19 @@
       </c>
       <c r="H55" s="1">
         <f t="shared" si="2"/>
-        <v>-6.7095588234749931E-4</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6.7095588234749931E-4</v>
+      </c>
+      <c r="I55" s="2">
+        <f t="shared" si="3"/>
+        <v>2.8756133082591794E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>55</v>
       </c>
       <c r="C56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1484375</v>
       </c>
       <c r="D56">
@@ -1926,15 +3935,19 @@
       </c>
       <c r="H56" s="1">
         <f t="shared" si="2"/>
-        <v>-4.7640931371999872E-4</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4.7640931371999872E-4</v>
+      </c>
+      <c r="I56" s="2">
+        <f t="shared" si="3"/>
+        <v>2.0697678533105356E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>56</v>
       </c>
       <c r="C57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1875</v>
       </c>
       <c r="D57">
@@ -1953,15 +3966,19 @@
       </c>
       <c r="H57" s="1">
         <f t="shared" si="2"/>
-        <v>-2.8186274509249819E-4</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2.8186274509249819E-4</v>
+      </c>
+      <c r="I57" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2410941704867895E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>57</v>
       </c>
       <c r="C58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2265625</v>
       </c>
       <c r="D58">
@@ -1980,15 +3997,19 @@
       </c>
       <c r="H58" s="1">
         <f t="shared" si="2"/>
-        <v>-6.7555147058250052E-4</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6.7555147058250052E-4</v>
+      </c>
+      <c r="I58" s="2">
+        <f t="shared" si="3"/>
+        <v>3.0539521213783162E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>58</v>
       </c>
       <c r="C59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.265625</v>
       </c>
       <c r="D59">
@@ -2007,15 +4028,19 @@
       </c>
       <c r="H59" s="1">
         <f t="shared" si="2"/>
-        <v>-6.7708333332749948E-4</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6.7708333332749948E-4</v>
+      </c>
+      <c r="I59" s="2">
+        <f t="shared" si="3"/>
+        <v>3.1138780381672238E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>59</v>
       </c>
       <c r="C60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3046875</v>
       </c>
       <c r="D60">
@@ -2034,15 +4059,19 @@
       </c>
       <c r="H60" s="1">
         <f t="shared" si="2"/>
-        <v>-6.7861519607249844E-4</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6.7861519607249844E-4</v>
+      </c>
+      <c r="I60" s="2">
+        <f t="shared" si="3"/>
+        <v>3.1740437778307218E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>60</v>
       </c>
       <c r="C61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.34375</v>
       </c>
       <c r="D61">
@@ -2061,15 +4090,19 @@
       </c>
       <c r="H61" s="1">
         <f t="shared" si="2"/>
-        <v>-6.801470588174974E-4</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6.801470588174974E-4</v>
+      </c>
+      <c r="I61" s="2">
+        <f t="shared" si="3"/>
+        <v>3.2344493403688281E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>61</v>
       </c>
       <c r="C62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3828125</v>
       </c>
       <c r="D62">
@@ -2088,15 +4121,19 @@
       </c>
       <c r="H62" s="1">
         <f t="shared" si="2"/>
-        <v>-8.7775735293500019E-4</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+        <v>8.7775735293500019E-4</v>
+      </c>
+      <c r="I62" s="2">
+        <f t="shared" si="3"/>
+        <v>4.2601081821440094E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>62</v>
       </c>
       <c r="C63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.421875</v>
       </c>
       <c r="D63">
@@ -2115,15 +4152,19 @@
       </c>
       <c r="H63" s="1">
         <f t="shared" si="2"/>
-        <v>-6.8321078430749966E-4</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6.8321078430749966E-4</v>
+      </c>
+      <c r="I63" s="2">
+        <f t="shared" si="3"/>
+        <v>3.3559799340688555E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>63</v>
       </c>
       <c r="C64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4609375</v>
       </c>
       <c r="D64">
@@ -2142,15 +4183,19 @@
       </c>
       <c r="H64" s="1">
         <f t="shared" si="2"/>
-        <v>-4.8866421567999923E-4</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4.8866421567999923E-4</v>
+      </c>
+      <c r="I64" s="2">
+        <f t="shared" si="3"/>
+        <v>2.4290234581186088E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>64</v>
       </c>
       <c r="C65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="D65">
@@ -2169,15 +4214,19 @@
       </c>
       <c r="H65" s="1">
         <f t="shared" si="2"/>
-        <v>-2.9411764705249865E-4</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2.9411764705249865E-4</v>
+      </c>
+      <c r="I65" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4792387542932595E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>65</v>
       </c>
       <c r="C66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5390625</v>
       </c>
       <c r="D66">
@@ -2196,1712 +4245,1969 @@
       </c>
       <c r="H66" s="1">
         <f t="shared" si="2"/>
-        <v>-2.9564950979749761E-4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2.9564950979749761E-4</v>
+      </c>
+      <c r="I66" s="2">
+        <f t="shared" si="3"/>
+        <v>1.5100860302047713E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>66</v>
       </c>
       <c r="C67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.578125</v>
       </c>
       <c r="D67">
         <v>10000110</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E129" si="4">BIN2DEC(D67)*0.01960784313725</f>
+        <f t="shared" ref="E67:E129" si="5">BIN2DEC(D67)*0.01960784313725</f>
         <v>2.6274509803915</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F129" si="5">C67/2</f>
+        <f t="shared" ref="F67:F129" si="6">C67/2</f>
         <v>1.2890625</v>
       </c>
       <c r="G67">
         <v>2.5779999999999998</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" ref="H67:H129" si="6">(C67-E67)/100</f>
-        <v>-4.9325980391500045E-4</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H67:H129" si="7">(E67-C67)/100</f>
+        <v>4.9325980391500045E-4</v>
+      </c>
+      <c r="I67" s="2">
+        <f t="shared" ref="I67:I129" si="8">( (E67^2) - (C67^2))/100</f>
+        <v>2.567701387352548E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>67</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:C129" si="7">C67+(5/128)</f>
+        <f t="shared" ref="C68:C129" si="9">C67+(5/128)</f>
         <v>2.6171875</v>
       </c>
       <c r="D68">
         <v>10000111</v>
       </c>
       <c r="E68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.64705882352875</v>
       </c>
       <c r="F68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.30859375</v>
       </c>
       <c r="G68">
         <v>2.6179999999999999</v>
       </c>
       <c r="H68" s="1">
-        <f t="shared" si="6"/>
-        <v>-2.9871323528749992E-4</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>2.9871323528749992E-4</v>
+      </c>
+      <c r="I68" s="2">
+        <f t="shared" si="8"/>
+        <v>1.5725000506516017E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>68</v>
       </c>
       <c r="C69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.65625</v>
       </c>
       <c r="D69">
         <v>10001011</v>
       </c>
       <c r="E69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.7254901960777498</v>
       </c>
       <c r="F69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.328125</v>
       </c>
       <c r="G69">
         <v>2.657</v>
       </c>
       <c r="H69" s="1">
-        <f t="shared" si="6"/>
-        <v>-6.9240196077749786E-4</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>6.9240196077749786E-4</v>
+      </c>
+      <c r="I69" s="2">
+        <f t="shared" si="8"/>
+        <v>3.7263274641593114E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>69</v>
       </c>
       <c r="C70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.6953125</v>
       </c>
       <c r="D70">
         <v>10001101</v>
       </c>
       <c r="E70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.7647058823522501</v>
       </c>
       <c r="F70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.34765625</v>
       </c>
       <c r="G70">
         <v>2.6970000000000001</v>
       </c>
       <c r="H70" s="1">
-        <f t="shared" si="6"/>
-        <v>-6.9393382352250126E-4</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>6.9393382352250126E-4</v>
+      </c>
+      <c r="I70" s="2">
+        <f t="shared" si="8"/>
+        <v>3.788891432568837E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>70</v>
       </c>
       <c r="C71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.734375</v>
       </c>
       <c r="D71">
         <v>10001110</v>
       </c>
       <c r="E71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.7843137254895001</v>
       </c>
       <c r="F71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3671875</v>
       </c>
       <c r="G71">
         <v>2.7349999999999999</v>
       </c>
       <c r="H71" s="1">
-        <f t="shared" si="6"/>
-        <v>-4.9938725489500073E-4</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>4.9938725489500073E-4</v>
+      </c>
+      <c r="I71" s="2">
+        <f t="shared" si="8"/>
+        <v>2.7559628132421922E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>71</v>
       </c>
       <c r="C72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.7734375</v>
       </c>
       <c r="D72">
         <v>10001111</v>
       </c>
       <c r="E72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.80392156862675</v>
       </c>
       <c r="F72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.38671875</v>
       </c>
       <c r="G72">
         <v>2.7730000000000001</v>
       </c>
       <c r="H72" s="1">
-        <f t="shared" si="6"/>
-        <v>-3.0484068626750015E-4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>3.0484068626750015E-4</v>
+      </c>
+      <c r="I72" s="2">
+        <f t="shared" si="8"/>
+        <v>1.7002059660404445E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>72</v>
       </c>
       <c r="C73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.8125</v>
       </c>
       <c r="D73">
         <v>10010010</v>
       </c>
       <c r="E73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.8627450980384999</v>
       </c>
       <c r="F73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.40625</v>
       </c>
       <c r="G73">
         <v>2.8130000000000002</v>
       </c>
       <c r="H73" s="1">
-        <f t="shared" si="6"/>
-        <v>-5.0245098038499854E-4</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>5.0245098038499854E-4</v>
+      </c>
+      <c r="I73" s="2">
+        <f t="shared" si="8"/>
+        <v>2.8515324634346053E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>73</v>
       </c>
       <c r="C74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.8515625</v>
       </c>
       <c r="D74">
         <v>10010101</v>
       </c>
       <c r="E74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9215686274502497</v>
       </c>
       <c r="F74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.42578125</v>
       </c>
       <c r="G74">
         <v>2.8519999999999999</v>
       </c>
       <c r="H74" s="1">
-        <f t="shared" si="6"/>
-        <v>-7.0006127450249699E-4</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>7.0006127450249699E-4</v>
+      </c>
+      <c r="I74" s="2">
+        <f t="shared" si="8"/>
+        <v>4.0415455349528525E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>74</v>
       </c>
       <c r="C75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.890625</v>
       </c>
       <c r="D75">
         <v>10010111</v>
       </c>
       <c r="E75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.96078431372475</v>
       </c>
       <c r="F75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4453125</v>
       </c>
       <c r="G75">
         <v>2.89</v>
       </c>
       <c r="H75" s="1">
-        <f t="shared" si="6"/>
-        <v>-7.015931372475004E-4</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>7.015931372475004E-4</v>
+      </c>
+      <c r="I75" s="2">
+        <f t="shared" si="8"/>
+        <v>4.1053086177353926E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>75</v>
       </c>
       <c r="C76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.9296875</v>
       </c>
       <c r="D76">
         <v>10011001</v>
       </c>
       <c r="E76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9999999999992499</v>
       </c>
       <c r="F76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.46484375</v>
       </c>
       <c r="G76">
         <v>2.9279999999999999</v>
       </c>
       <c r="H76" s="1">
-        <f t="shared" si="6"/>
-        <v>-7.0312499999249935E-4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>7.0312499999249935E-4</v>
+      </c>
+      <c r="I76" s="2">
+        <f t="shared" si="8"/>
+        <v>4.1693115233924875E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>76</v>
       </c>
       <c r="C77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.96875</v>
       </c>
       <c r="D77">
         <v>10011011</v>
       </c>
       <c r="E77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.0392156862737498</v>
       </c>
       <c r="F77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.484375</v>
       </c>
       <c r="G77">
         <v>2.9670000000000001</v>
       </c>
       <c r="H77" s="1">
-        <f t="shared" si="6"/>
-        <v>-7.0465686273749831E-4</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>7.0465686273749831E-4</v>
+      </c>
+      <c r="I77" s="2">
+        <f t="shared" si="8"/>
+        <v>4.2335542519242077E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>77</v>
       </c>
       <c r="C78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.0078125</v>
       </c>
       <c r="D78">
         <v>10011110</v>
       </c>
       <c r="E78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.0980392156855001</v>
       </c>
       <c r="F78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.50390625</v>
       </c>
       <c r="G78">
         <v>3.0049999999999999</v>
       </c>
       <c r="H78" s="1">
-        <f t="shared" si="6"/>
-        <v>-9.022671568550011E-4</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>9.022671568550011E-4</v>
+      </c>
+      <c r="I78" s="2">
+        <f t="shared" si="8"/>
+        <v>5.5091094676897791E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>78</v>
       </c>
       <c r="C79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.046875</v>
       </c>
       <c r="D79">
         <v>10011111</v>
       </c>
       <c r="E79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1176470588227501</v>
       </c>
       <c r="F79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5234375</v>
       </c>
       <c r="G79">
         <v>3.0449999999999999</v>
       </c>
       <c r="H79" s="1">
-        <f t="shared" si="6"/>
-        <v>-7.0772058822750057E-4</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>7.0772058822750057E-4</v>
+      </c>
+      <c r="I79" s="2">
+        <f t="shared" si="8"/>
+        <v>4.3627591776114368E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>79</v>
       </c>
       <c r="C80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.0859375</v>
       </c>
       <c r="D80">
         <v>10100000</v>
       </c>
       <c r="E80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.13725490196</v>
       </c>
       <c r="F80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.54296875</v>
       </c>
       <c r="G80">
         <v>3.0840000000000001</v>
       </c>
       <c r="H80" s="1">
-        <f t="shared" si="6"/>
-        <v>-5.1317401960000004E-4</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>5.1317401960000004E-4</v>
+      </c>
+      <c r="I80" s="2">
+        <f t="shared" si="8"/>
+        <v>3.1935806596579928E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>80</v>
       </c>
       <c r="C81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.125</v>
       </c>
       <c r="D81">
         <v>10100011</v>
       </c>
       <c r="E81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1960784313717499</v>
       </c>
       <c r="F81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5625</v>
       </c>
       <c r="G81">
         <v>3.125</v>
       </c>
       <c r="H81" s="1">
-        <f t="shared" si="6"/>
-        <v>-7.1078431371749849E-4</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>7.1078431371749849E-4</v>
+      </c>
+      <c r="I81" s="2">
+        <f t="shared" si="8"/>
+        <v>4.492923394797046E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>81</v>
       </c>
       <c r="C82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.1640625</v>
       </c>
       <c r="D82">
         <v>10100110</v>
       </c>
       <c r="E82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2549019607834997</v>
       </c>
       <c r="F82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.58203125</v>
       </c>
       <c r="G82">
         <v>3.1629999999999998</v>
       </c>
       <c r="H82" s="1">
-        <f t="shared" si="6"/>
-        <v>-9.0839460783499694E-4</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>9.0839460783499694E-4</v>
+      </c>
+      <c r="I82" s="2">
+        <f t="shared" si="8"/>
+        <v>5.8309527040602124E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>82</v>
       </c>
       <c r="C83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.203125</v>
       </c>
       <c r="D83">
         <v>10100111</v>
       </c>
       <c r="E83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2745098039207501</v>
       </c>
       <c r="F83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6015625</v>
       </c>
       <c r="G83">
         <v>3.202</v>
       </c>
       <c r="H83" s="1">
-        <f t="shared" si="6"/>
-        <v>-7.1384803920750085E-4</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>7.1384803920750085E-4</v>
+      </c>
+      <c r="I83" s="2">
+        <f t="shared" si="8"/>
+        <v>4.6240469034810874E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>83</v>
       </c>
       <c r="C84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.2421875</v>
       </c>
       <c r="D84">
         <v>10101010</v>
       </c>
       <c r="E84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3333333333324999</v>
       </c>
       <c r="F84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.62109375</v>
       </c>
       <c r="G84">
         <v>3.2410000000000001</v>
       </c>
       <c r="H84" s="1">
-        <f t="shared" si="6"/>
-        <v>-9.114583333249993E-4</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>9.114583333249993E-4</v>
+      </c>
+      <c r="I84" s="2">
+        <f t="shared" si="8"/>
+        <v>5.9933132594930426E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>84</v>
       </c>
       <c r="C85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.28125</v>
       </c>
       <c r="D85">
         <v>10101100</v>
       </c>
       <c r="E85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3725490196069998</v>
       </c>
       <c r="F85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.640625</v>
       </c>
       <c r="G85">
         <v>3.28</v>
       </c>
       <c r="H85" s="1">
-        <f t="shared" si="6"/>
-        <v>-9.1299019606999815E-4</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>9.1299019606999815E-4</v>
+      </c>
+      <c r="I85" s="2">
+        <f t="shared" si="8"/>
+        <v>6.0748532715213521E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>85</v>
       </c>
       <c r="C86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.3203125</v>
       </c>
       <c r="D86">
         <v>10101101</v>
       </c>
       <c r="E86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3921568627442498</v>
       </c>
       <c r="F86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.66015625</v>
       </c>
       <c r="G86">
         <v>3.32</v>
       </c>
       <c r="H86" s="1">
-        <f t="shared" si="6"/>
-        <v>-7.1844362744249773E-4</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>7.1844362744249773E-4</v>
+      </c>
+      <c r="I86" s="2">
+        <f t="shared" si="8"/>
+        <v>4.822530838066612E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>86</v>
       </c>
       <c r="C87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.359375</v>
       </c>
       <c r="D87">
         <v>10101111</v>
       </c>
       <c r="E87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4313725490187501</v>
       </c>
       <c r="F87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6796875</v>
       </c>
       <c r="G87">
         <v>3.3580000000000001</v>
       </c>
       <c r="H87" s="1">
-        <f t="shared" si="6"/>
-        <v>-7.1997549018750103E-4</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>7.1997549018750103E-4</v>
+      </c>
+      <c r="I87" s="2">
+        <f t="shared" si="8"/>
+        <v>4.8891717953443428E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>87</v>
       </c>
       <c r="C88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.3984375</v>
       </c>
       <c r="D88">
         <v>10110010</v>
       </c>
       <c r="E88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4901960784304999</v>
       </c>
       <c r="F88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.69921875</v>
       </c>
       <c r="G88">
         <v>3.3980000000000001</v>
       </c>
       <c r="H88" s="1">
-        <f t="shared" si="6"/>
-        <v>-9.1758578430499948E-4</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>9.1758578430499948E-4</v>
+      </c>
+      <c r="I88" s="2">
+        <f t="shared" si="8"/>
+        <v>6.3209122448539112E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>88</v>
       </c>
       <c r="C89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.4375</v>
       </c>
       <c r="D89">
         <v>10110100</v>
       </c>
       <c r="E89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.5294117647049998</v>
       </c>
       <c r="F89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.71875</v>
       </c>
       <c r="G89">
         <v>3.4380000000000002</v>
       </c>
       <c r="H89" s="1">
-        <f t="shared" si="6"/>
-        <v>-9.1911764704999844E-4</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>9.1911764704999844E-4</v>
+      </c>
+      <c r="I89" s="2">
+        <f t="shared" si="8"/>
+        <v>6.4034115483806173E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>89</v>
       </c>
       <c r="C90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.4765625</v>
       </c>
       <c r="D90">
         <v>10110111</v>
       </c>
       <c r="E90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.5882352941167497</v>
       </c>
       <c r="F90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.73828125</v>
       </c>
       <c r="G90">
         <v>3.4769999999999999</v>
       </c>
       <c r="H90" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.1167279411674969E-3</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1.1167279411674969E-3</v>
+      </c>
+      <c r="I90" s="2">
+        <f t="shared" si="8"/>
+        <v>7.8894570953886682E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>90</v>
       </c>
       <c r="C91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.515625</v>
       </c>
       <c r="D91">
         <v>10111001</v>
       </c>
       <c r="E91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.62745098039125</v>
       </c>
       <c r="F91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7578125</v>
       </c>
       <c r="G91">
         <v>3.5179999999999998</v>
       </c>
       <c r="H91" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.1182598039125003E-3</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1.1182598039125003E-3</v>
+      </c>
+      <c r="I91" s="2">
+        <f t="shared" si="8"/>
+        <v>7.9878147451644035E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>91</v>
       </c>
       <c r="C92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.5546875</v>
       </c>
       <c r="D92">
         <v>10111011</v>
       </c>
       <c r="E92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.6666666666657499</v>
       </c>
       <c r="F92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.77734375</v>
       </c>
       <c r="G92">
         <v>3.5590000000000002</v>
       </c>
       <c r="H92" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.1197916666574991E-3</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1.1197916666574991E-3</v>
+      </c>
+      <c r="I92" s="2">
+        <f t="shared" si="8"/>
+        <v>8.0864122178147119E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>92</v>
       </c>
       <c r="C93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.59375</v>
       </c>
       <c r="D93">
         <v>10111110</v>
       </c>
       <c r="E93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.7254901960774998</v>
       </c>
       <c r="F93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.796875</v>
       </c>
       <c r="G93">
         <v>3.5990000000000002</v>
       </c>
       <c r="H93" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.3174019607749977E-3</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1.3174019607749977E-3</v>
+      </c>
+      <c r="I93" s="2">
+        <f t="shared" si="8"/>
+        <v>9.6423813856956822E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>93</v>
       </c>
       <c r="C94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.6328125</v>
       </c>
       <c r="D94">
         <v>10111111</v>
       </c>
       <c r="E94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.7450980392147497</v>
       </c>
       <c r="F94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.81640625</v>
       </c>
       <c r="G94">
         <v>3.6389999999999998</v>
       </c>
       <c r="H94" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.1228553921474971E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1.1228553921474971E-3</v>
+      </c>
+      <c r="I94" s="2">
+        <f t="shared" si="8"/>
+        <v>8.2843266317391348E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>94</v>
       </c>
       <c r="C95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.671875</v>
       </c>
       <c r="D95">
         <v>11000000</v>
       </c>
       <c r="E95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.7647058823519997</v>
       </c>
       <c r="F95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8359375</v>
       </c>
       <c r="G95">
         <v>3.6789999999999998</v>
       </c>
       <c r="H95" s="1">
-        <f t="shared" si="6"/>
-        <v>-9.2830882351999653E-4</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>9.2830882351999653E-4</v>
+      </c>
+      <c r="I95" s="2">
+        <f t="shared" si="8"/>
+        <v>6.9034436499074833E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>95</v>
       </c>
       <c r="C96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.7109375</v>
       </c>
       <c r="D96">
         <v>11000001</v>
       </c>
       <c r="E96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.78431372548925</v>
       </c>
       <c r="F96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.85546875</v>
       </c>
       <c r="G96">
         <v>3.718</v>
       </c>
       <c r="H96" s="1">
-        <f t="shared" si="6"/>
-        <v>-7.3376225489250044E-4</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>7.3376225489250044E-4</v>
+      </c>
+      <c r="I96" s="2">
+        <f t="shared" si="8"/>
+        <v>5.4997324402007667E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>96</v>
       </c>
       <c r="C97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.75</v>
       </c>
       <c r="D97">
         <v>11000101</v>
       </c>
       <c r="E97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.8627450980382498</v>
       </c>
       <c r="F97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.875</v>
       </c>
       <c r="G97">
         <v>3.758</v>
       </c>
       <c r="H97" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.1274509803824984E-3</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1.1274509803824984E-3</v>
+      </c>
+      <c r="I97" s="2">
+        <f t="shared" si="8"/>
+        <v>8.5829969241852846E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>97</v>
       </c>
       <c r="C98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.7890625</v>
       </c>
       <c r="D98">
         <v>11000111</v>
       </c>
       <c r="E98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.9019607843127497</v>
       </c>
       <c r="F98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.89453125</v>
       </c>
       <c r="G98">
         <v>3.7970000000000002</v>
       </c>
       <c r="H98" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.1289828431274972E-3</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1.1289828431274972E-3</v>
+      </c>
+      <c r="I98" s="2">
+        <f t="shared" si="8"/>
+        <v>8.6830333340831879E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>98</v>
       </c>
       <c r="C99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.828125</v>
       </c>
       <c r="D99">
         <v>11001001</v>
       </c>
       <c r="E99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.9411764705872501</v>
       </c>
       <c r="F99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9140625</v>
       </c>
       <c r="G99">
         <v>3.8359999999999999</v>
       </c>
       <c r="H99" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.1305147058725006E-3</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1.1305147058725006E-3</v>
+      </c>
+      <c r="I99" s="2">
+        <f t="shared" si="8"/>
+        <v>8.7833095668557355E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>99</v>
       </c>
       <c r="C100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.8671875</v>
       </c>
       <c r="D100">
-        <v>11001011</v>
+        <v>11001010</v>
       </c>
       <c r="E100">
-        <f t="shared" si="4"/>
-        <v>3.98039215686175</v>
+        <f t="shared" si="5"/>
+        <v>3.9607843137245</v>
       </c>
       <c r="F100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.93359375</v>
       </c>
       <c r="G100">
         <v>3.875</v>
       </c>
       <c r="H100" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.1320465686174997E-3</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>9.3596813724500022E-4</v>
+      </c>
+      <c r="I100" s="2">
+        <f t="shared" si="8"/>
+        <v>7.3267321968980784E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>100</v>
       </c>
       <c r="C101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.90625</v>
       </c>
       <c r="D101">
-        <v>11001110</v>
+        <v>11001100</v>
       </c>
       <c r="E101">
-        <f t="shared" si="4"/>
-        <v>4.0392156862734998</v>
+        <f t="shared" si="5"/>
+        <v>3.9999999999989999</v>
       </c>
       <c r="F101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.953125</v>
       </c>
       <c r="G101">
         <v>3.9119999999999999</v>
       </c>
       <c r="H101" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.329656862734998E-3</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>9.3749999998999907E-4</v>
+      </c>
+      <c r="I101" s="2">
+        <f t="shared" si="8"/>
+        <v>7.4121093749199927E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>101</v>
       </c>
       <c r="C102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.9453125</v>
       </c>
       <c r="D102">
-        <v>11001111</v>
+        <v>11001110</v>
       </c>
       <c r="E102">
-        <f t="shared" si="4"/>
-        <v>4.0588235294107502</v>
+        <f t="shared" si="5"/>
+        <v>4.0392156862734998</v>
       </c>
       <c r="F102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.97265625</v>
       </c>
       <c r="G102">
         <v>3.952</v>
       </c>
       <c r="H102" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.135110294107502E-3</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>9.3903186273499803E-4</v>
+      </c>
+      <c r="I102" s="2">
+        <f t="shared" si="8"/>
+        <v>7.4977263758164983E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>102</v>
       </c>
       <c r="C103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.984375</v>
       </c>
       <c r="D103">
         <v>11010001</v>
       </c>
       <c r="E103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.0980392156852501</v>
       </c>
       <c r="F103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9921875</v>
       </c>
       <c r="G103">
         <v>3.992</v>
       </c>
       <c r="H103" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.1366421568525008E-3</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1.1366421568525008E-3</v>
+      </c>
+      <c r="I103" s="2">
+        <f t="shared" si="8"/>
+        <v>9.1868127266917909E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>103</v>
       </c>
       <c r="C104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.0234375</v>
       </c>
       <c r="D104">
         <v>11010011</v>
       </c>
       <c r="E104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.13725490195975</v>
       </c>
       <c r="F104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.01171875</v>
       </c>
       <c r="G104">
         <v>4.0309999999999997</v>
       </c>
       <c r="H104" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.1381740195974999E-3</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1.1381740195974999E-3</v>
+      </c>
+      <c r="I104" s="2">
+        <f t="shared" si="8"/>
+        <v>9.2882880738373082E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>104</v>
       </c>
       <c r="C105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.0625</v>
       </c>
       <c r="D105">
-        <v>11010110</v>
+        <v>11010101</v>
       </c>
       <c r="E105">
-        <f t="shared" si="4"/>
-        <v>4.1960784313715003</v>
+        <f>BIN2DEC(D105)*0.01960784313725</f>
+        <v>4.1764705882342499</v>
       </c>
       <c r="F105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.03125</v>
       </c>
       <c r="G105">
         <v>4.07</v>
       </c>
       <c r="H105" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.3357843137150028E-3</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1.1397058823424987E-3</v>
+      </c>
+      <c r="I105" s="2">
+        <f t="shared" si="8"/>
+        <v>9.3900032438574144E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>105</v>
       </c>
       <c r="C106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.1015625</v>
       </c>
       <c r="D106">
         <v>11010111</v>
       </c>
       <c r="E106">
-        <f t="shared" si="4"/>
+        <f>BIN2DEC(D106)*0.01960784313725</f>
         <v>4.2156862745087498</v>
       </c>
       <c r="F106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.05078125</v>
       </c>
       <c r="G106">
         <v>4.109</v>
       </c>
       <c r="H106" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.1412377450874978E-3</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1.1412377450874978E-3</v>
+      </c>
+      <c r="I106" s="2">
+        <f t="shared" si="8"/>
+        <v>9.491958236752111E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>106</v>
       </c>
       <c r="C107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.140625</v>
       </c>
       <c r="D107">
-        <v>11011011</v>
+        <v>11011001</v>
       </c>
       <c r="E107">
-        <f t="shared" si="4"/>
-        <v>4.2941176470577496</v>
+        <f t="shared" si="5"/>
+        <v>4.2549019607832497</v>
       </c>
       <c r="F107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0703125</v>
       </c>
       <c r="G107">
         <v>4.1500000000000004</v>
       </c>
       <c r="H107" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.5349264705774956E-3</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1.1427696078324967E-3</v>
+      </c>
+      <c r="I107" s="2">
+        <f t="shared" si="8"/>
+        <v>9.5941530525214345E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>107</v>
       </c>
       <c r="C108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.1796875</v>
       </c>
       <c r="D108">
-        <v>11011110</v>
+        <v>11011010</v>
       </c>
       <c r="E108">
-        <f t="shared" si="4"/>
-        <v>4.3529411764694999</v>
+        <f t="shared" si="5"/>
+        <v>4.2745098039205001</v>
       </c>
       <c r="F108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.08984375</v>
       </c>
       <c r="G108">
         <v>4.1900000000000004</v>
       </c>
       <c r="H108" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.7325367646949985E-3</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>9.4822303920500057E-4</v>
+      </c>
+      <c r="I108" s="2">
+        <f t="shared" si="8"/>
+        <v>8.0164646615622105E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>108</v>
       </c>
       <c r="C109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.21875</v>
       </c>
       <c r="D109">
-        <v>11011111</v>
+        <v>11011011</v>
       </c>
       <c r="E109">
-        <f t="shared" si="4"/>
-        <v>4.3725490196067502</v>
+        <f t="shared" si="5"/>
+        <v>4.2941176470577496</v>
       </c>
       <c r="F109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.109375</v>
       </c>
       <c r="G109">
         <v>4.2309999999999999</v>
       </c>
       <c r="H109" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.5379901960675024E-3</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>7.536764705774957E-4</v>
+      </c>
+      <c r="I109" s="2">
+        <f t="shared" si="8"/>
+        <v>6.4159480427278485E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>109</v>
       </c>
       <c r="C110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.2578125</v>
       </c>
       <c r="D110">
-        <v>11100000</v>
+        <v>11011101</v>
       </c>
       <c r="E110">
-        <f t="shared" si="4"/>
-        <v>4.3921568627439997</v>
+        <f t="shared" si="5"/>
+        <v>4.3333333333322495</v>
       </c>
       <c r="F110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.12890625</v>
       </c>
       <c r="G110">
         <v>4.2709999999999999</v>
       </c>
       <c r="H110" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.3434436274399975E-3</v>
-      </c>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>7.5520833332249455E-4</v>
+      </c>
+      <c r="I110" s="2">
+        <f t="shared" si="8"/>
+        <v>6.4881049261213521E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>110</v>
       </c>
       <c r="C111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.296875</v>
       </c>
       <c r="D111">
-        <v>11100001</v>
+        <v>11011111</v>
       </c>
       <c r="E111">
-        <f t="shared" si="4"/>
-        <v>4.4117647058812501</v>
+        <f t="shared" si="5"/>
+        <v>4.3725490196067502</v>
       </c>
       <c r="F111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1484375</v>
       </c>
       <c r="G111">
         <v>4.3099999999999996</v>
       </c>
       <c r="H111" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.1488970588125014E-3</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>7.567401960675024E-4</v>
+      </c>
+      <c r="I111" s="2">
+        <f t="shared" si="8"/>
+        <v>6.5605016323895173E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>111</v>
       </c>
       <c r="C112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.3359375</v>
       </c>
       <c r="D112">
-        <v>11100101</v>
+        <v>11100001</v>
       </c>
       <c r="E112">
-        <f t="shared" si="4"/>
-        <v>4.4901960784302499</v>
+        <f t="shared" si="5"/>
+        <v>4.4117647058812501</v>
       </c>
       <c r="F112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.16796875</v>
       </c>
       <c r="G112">
         <v>4.3499999999999996</v>
       </c>
       <c r="H112" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.5425857843024992E-3</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>7.5827205881250136E-4</v>
+      </c>
+      <c r="I112" s="2">
+        <f t="shared" si="8"/>
+        <v>6.6331381615322375E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>112</v>
       </c>
       <c r="C113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.375</v>
       </c>
       <c r="D113">
-        <v>11100111</v>
+        <v>11100011</v>
       </c>
       <c r="E113">
-        <f t="shared" si="4"/>
-        <v>4.5294117647047498</v>
+        <f t="shared" si="5"/>
+        <v>4.45098039215575</v>
       </c>
       <c r="F113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1875</v>
       </c>
       <c r="G113">
         <v>4.3879999999999999</v>
       </c>
       <c r="H113" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.5441176470474983E-3</v>
-      </c>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>7.5980392155750032E-4</v>
+      </c>
+      <c r="I113" s="2">
+        <f t="shared" si="8"/>
+        <v>6.7060145135495472E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>113</v>
       </c>
       <c r="C114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.4140625</v>
       </c>
       <c r="D114">
-        <v>11101001</v>
+        <v>11100101</v>
       </c>
       <c r="E114">
-        <f t="shared" si="4"/>
-        <v>4.5686274509792497</v>
+        <f t="shared" si="5"/>
+        <v>4.4901960784302499</v>
       </c>
       <c r="F114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.20703125</v>
       </c>
       <c r="G114">
         <v>4.4269999999999996</v>
       </c>
       <c r="H114" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.5456495097924971E-3</v>
-      </c>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>7.6133578430249928E-4</v>
+      </c>
+      <c r="I114" s="2">
+        <f t="shared" si="8"/>
+        <v>6.7791306884414483E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>114</v>
       </c>
       <c r="C115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.453125</v>
       </c>
       <c r="D115">
-        <v>11101011</v>
+        <v>11100111</v>
       </c>
       <c r="E115">
-        <f t="shared" si="4"/>
-        <v>4.6078431372537496</v>
+        <f t="shared" si="5"/>
+        <v>4.5294117647047498</v>
       </c>
       <c r="F115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.2265625</v>
       </c>
       <c r="G115">
         <v>4.468</v>
       </c>
       <c r="H115" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.5471813725374962E-3</v>
-      </c>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>7.6286764704749824E-4</v>
+      </c>
+      <c r="I115" s="2">
+        <f t="shared" si="8"/>
+        <v>6.8524866862079746E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>115</v>
       </c>
       <c r="C116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.4921875</v>
       </c>
       <c r="D116">
-        <v>11101100</v>
+        <v>11101001</v>
       </c>
       <c r="E116">
-        <f t="shared" si="4"/>
-        <v>4.627450980391</v>
+        <f t="shared" si="5"/>
+        <v>4.5686274509792497</v>
       </c>
       <c r="F116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.24609375</v>
       </c>
       <c r="G116">
         <v>4.5060000000000002</v>
       </c>
       <c r="H116" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.3526348039100001E-3</v>
-      </c>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>7.643995097924972E-4</v>
+      </c>
+      <c r="I116" s="2">
+        <f t="shared" si="8"/>
+        <v>6.9260825068490559E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>116</v>
       </c>
       <c r="C117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.53125</v>
       </c>
       <c r="D117">
-        <v>11101101</v>
+        <v>11101011</v>
       </c>
       <c r="E117">
-        <f t="shared" si="4"/>
-        <v>4.6470588235282495</v>
+        <f t="shared" si="5"/>
+        <v>4.6078431372537496</v>
       </c>
       <c r="F117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.265625</v>
       </c>
       <c r="G117">
         <v>4.5460000000000003</v>
       </c>
       <c r="H117" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.1580882352824951E-3</v>
-      </c>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>7.6593137253749615E-4</v>
+      </c>
+      <c r="I117" s="2">
+        <f t="shared" si="8"/>
+        <v>6.9999181503647631E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>117</v>
       </c>
       <c r="C118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.5703125</v>
       </c>
       <c r="D118">
-        <v>11110001</v>
+        <v>11101101</v>
       </c>
       <c r="E118">
-        <f t="shared" si="4"/>
-        <v>4.7254901960772502</v>
+        <f t="shared" si="5"/>
+        <v>4.6470588235282495</v>
       </c>
       <c r="F118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.28515625</v>
       </c>
       <c r="G118">
         <v>4.5869999999999997</v>
       </c>
       <c r="H118" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.5517769607725019E-3</v>
-      </c>
-    </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>7.6746323528249501E-4</v>
+      </c>
+      <c r="I118" s="2">
+        <f t="shared" si="8"/>
+        <v>7.0739936167550964E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>118</v>
       </c>
       <c r="C119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.609375</v>
       </c>
       <c r="D119">
-        <v>11110101</v>
+        <v>11101111</v>
       </c>
       <c r="E119">
-        <f t="shared" si="4"/>
-        <v>4.80392156862625</v>
+        <f t="shared" si="5"/>
+        <v>4.6862745098027503</v>
       </c>
       <c r="F119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.3046875</v>
       </c>
       <c r="G119">
         <v>4.6269999999999998</v>
       </c>
       <c r="H119" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.9454656862624997E-3</v>
-      </c>
-    </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>7.6899509802750286E-4</v>
+      </c>
+      <c r="I119" s="2">
+        <f t="shared" si="8"/>
+        <v>7.1483089060200913E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>119</v>
       </c>
       <c r="C120">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.6484375</v>
       </c>
       <c r="D120">
-        <v>11110111</v>
+        <v>11110010</v>
       </c>
       <c r="E120">
-        <f t="shared" si="4"/>
-        <v>4.8431372549007499</v>
+        <f t="shared" si="5"/>
+        <v>4.7450980392144997</v>
       </c>
       <c r="F120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.32421875</v>
       </c>
       <c r="G120">
         <v>4.6660000000000004</v>
       </c>
       <c r="H120" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.9469975490074988E-3</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>9.6660539214499686E-4</v>
+      </c>
+      <c r="I120" s="2">
+        <f t="shared" si="8"/>
+        <v>9.0798421035103872E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>120</v>
       </c>
       <c r="C121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.6875</v>
       </c>
       <c r="D121">
-        <v>11111001</v>
+        <v>11110011</v>
       </c>
       <c r="E121">
-        <f t="shared" si="4"/>
-        <v>4.8823529411752498</v>
+        <f t="shared" si="5"/>
+        <v>4.7647058823517501</v>
       </c>
       <c r="F121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.34375</v>
       </c>
       <c r="G121">
         <v>4.7050000000000001</v>
       </c>
       <c r="H121" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.9485294117524976E-3</v>
-      </c>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>7.7205882351750077E-4</v>
+      </c>
+      <c r="I121" s="2">
+        <f t="shared" si="8"/>
+        <v>7.2976589531737086E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>121</v>
       </c>
       <c r="C122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.7265625</v>
       </c>
       <c r="D122">
-        <v>11111010</v>
+        <v>11110101</v>
       </c>
       <c r="E122">
-        <f t="shared" si="4"/>
-        <v>4.9019607843125002</v>
+        <f t="shared" si="5"/>
+        <v>4.80392156862625</v>
       </c>
       <c r="F122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.36328125</v>
       </c>
       <c r="G122">
         <v>4.7439999999999998</v>
       </c>
       <c r="H122" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.7539828431250015E-3</v>
-      </c>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>7.7359068626249973E-4</v>
+      </c>
+      <c r="I122" s="2">
+        <f t="shared" si="8"/>
+        <v>7.3726937110624039E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>122</v>
       </c>
       <c r="C123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.765625</v>
       </c>
       <c r="D123">
-        <v>11111100</v>
+        <v>11110111</v>
       </c>
       <c r="E123">
-        <f t="shared" si="4"/>
-        <v>4.941176470587</v>
+        <f t="shared" si="5"/>
+        <v>4.8431372549007499</v>
       </c>
       <c r="F123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.3828125</v>
       </c>
       <c r="G123">
         <v>4.7830000000000004</v>
       </c>
       <c r="H123" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.7555147058700004E-3</v>
-      </c>
-    </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>7.7512254900749869E-4</v>
+      </c>
+      <c r="I123" s="2">
+        <f t="shared" si="8"/>
+        <v>7.4479682918257243E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>123</v>
       </c>
       <c r="C124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.8046875</v>
       </c>
       <c r="D124">
-        <v>11111101</v>
+        <v>11111001</v>
       </c>
       <c r="E124">
-        <f t="shared" si="4"/>
-        <v>4.9607843137242496</v>
+        <f t="shared" si="5"/>
+        <v>4.8823529411752498</v>
       </c>
       <c r="F124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.40234375</v>
       </c>
       <c r="G124">
         <v>4.8540000000000001</v>
       </c>
       <c r="H124" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.5609681372424954E-3</v>
-      </c>
-    </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>7.7665441175249765E-4</v>
+      </c>
+      <c r="I124" s="2">
+        <f t="shared" si="8"/>
+        <v>7.5234826954636343E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>124</v>
       </c>
       <c r="C125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.84375</v>
       </c>
       <c r="D125">
-        <v>11111110</v>
+        <v>11111011</v>
       </c>
       <c r="E125">
-        <f t="shared" si="4"/>
-        <v>4.9803921568614999</v>
+        <f t="shared" si="5"/>
+        <v>4.9215686274497497</v>
       </c>
       <c r="F125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.421875</v>
       </c>
       <c r="G125">
         <v>4.8620000000000001</v>
       </c>
       <c r="H125" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.3664215686149993E-3</v>
-      </c>
-    </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>7.781862744974965E-4</v>
+      </c>
+      <c r="I125" s="2">
+        <f t="shared" si="8"/>
+        <v>7.5992369219761357E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>125</v>
       </c>
       <c r="C126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.8828125</v>
       </c>
       <c r="D126">
-        <v>11111111</v>
+        <v>11111101</v>
       </c>
       <c r="E126">
-        <f t="shared" si="4"/>
-        <v>4.9999999999987494</v>
+        <f t="shared" si="5"/>
+        <v>4.9607843137242496</v>
       </c>
       <c r="F126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.44140625</v>
       </c>
       <c r="G126">
         <v>4.9039999999999999</v>
       </c>
       <c r="H126" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.1718749999874946E-3</v>
-      </c>
-    </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>7.7971813724249546E-4</v>
+      </c>
+      <c r="I126" s="2">
+        <f t="shared" si="8"/>
+        <v>7.6752309713632276E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>126</v>
       </c>
       <c r="C127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.921875</v>
       </c>
       <c r="D127">
-        <v>11111111</v>
+        <v>11111110</v>
       </c>
       <c r="E127">
-        <f t="shared" si="4"/>
-        <v>4.9999999999987494</v>
+        <f t="shared" si="5"/>
+        <v>4.9803921568614999</v>
       </c>
       <c r="F127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4609375</v>
       </c>
       <c r="G127">
         <v>4.9409999999999998</v>
       </c>
       <c r="H127" s="1">
-        <f t="shared" si="6"/>
-        <v>-7.8124999998749442E-4</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>5.8517156861499938E-4</v>
+      </c>
+      <c r="I127" s="2">
+        <f t="shared" si="8"/>
+        <v>5.7945252050254229E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>127</v>
       </c>
       <c r="C128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.9609375</v>
       </c>
       <c r="D128">
         <v>11111111</v>
       </c>
       <c r="E128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.9999999999987494</v>
       </c>
       <c r="F128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.48046875</v>
       </c>
       <c r="G128">
         <v>4.9809999999999999</v>
       </c>
       <c r="H128" s="1">
-        <f t="shared" si="6"/>
-        <v>-3.9062499998749445E-4</v>
-      </c>
-    </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>3.9062499998749445E-4</v>
+      </c>
+      <c r="I128" s="2">
+        <f t="shared" si="8"/>
+        <v>3.8909912108124447E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>128</v>
       </c>
       <c r="C129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="D129">
         <v>11111111</v>
       </c>
       <c r="E129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.9999999999987494</v>
       </c>
       <c r="F129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="G129">
         <v>5.0199999999999996</v>
       </c>
       <c r="H129" s="1">
-        <f t="shared" si="6"/>
-        <v>1.2505552149377763E-14</v>
+        <f t="shared" si="7"/>
+        <v>-1.2505552149377763E-14</v>
+      </c>
+      <c r="I129" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.2505552149377764E-13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>